--- a/allTest_DCE_Orgs_11.xlsx
+++ b/allTest_DCE_Orgs_11.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="114">
   <si>
     <t>tableName</t>
   </si>
@@ -244,6 +244,9 @@
     <t>nh_network_model_0_hdr</t>
   </si>
   <si>
+    <t>dce_align</t>
+  </si>
+  <si>
     <t>2021-12</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
   </si>
   <si>
     <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-10</t>
   </si>
   <si>
     <t>MEASURE_ID</t>
@@ -1099,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2">
         <v>44568</v>
@@ -1111,7 +1117,7 @@
         <v>7901</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2">
         <v>44543</v>
@@ -1131,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2">
         <v>44568</v>
@@ -1143,7 +1149,7 @@
         <v>13330</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2">
         <v>44543</v>
@@ -1163,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2">
         <v>44568</v>
@@ -1175,7 +1181,7 @@
         <v>33827</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2">
         <v>44543</v>
@@ -1195,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2">
         <v>44568</v>
@@ -1207,7 +1213,7 @@
         <v>4719</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2">
         <v>44543</v>
@@ -1227,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2">
         <v>44568</v>
@@ -1239,7 +1245,7 @@
         <v>2155240</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2">
         <v>44543</v>
@@ -1259,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2">
         <v>44568</v>
@@ -1271,7 +1277,7 @@
         <v>800387</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G7" s="2">
         <v>44543</v>
@@ -1291,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2">
         <v>44568</v>
@@ -1303,7 +1309,7 @@
         <v>12645</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2">
         <v>44543</v>
@@ -1323,13 +1329,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1343,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2">
         <v>44568</v>
@@ -1355,7 +1361,7 @@
         <v>319566</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G10" s="2">
         <v>44543</v>
@@ -1375,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2">
         <v>44568</v>
@@ -1387,7 +1393,7 @@
         <v>209942</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G11" s="2">
         <v>44543</v>
@@ -1407,7 +1413,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2">
         <v>44568</v>
@@ -1419,7 +1425,7 @@
         <v>1575686</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G12" s="2">
         <v>44543</v>
@@ -1439,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2">
         <v>44568</v>
@@ -1451,7 +1457,7 @@
         <v>157555</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2">
         <v>44543</v>
@@ -1471,7 +1477,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2">
         <v>44568</v>
@@ -1483,7 +1489,7 @@
         <v>2273596</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G14" s="2">
         <v>44543</v>
@@ -1503,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2">
         <v>44568</v>
@@ -1515,7 +1521,7 @@
         <v>639132</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2">
         <v>44543</v>
@@ -1535,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2">
         <v>44568</v>
@@ -1547,7 +1553,7 @@
         <v>6961355</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G16" s="2">
         <v>44543</v>
@@ -1567,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2">
         <v>44568</v>
@@ -1579,7 +1585,7 @@
         <v>318579</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2">
         <v>44543</v>
@@ -1599,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2">
         <v>44568</v>
@@ -1611,7 +1617,7 @@
         <v>194914</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2">
         <v>44543</v>
@@ -1631,7 +1637,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2">
         <v>44568</v>
@@ -1643,7 +1649,7 @@
         <v>92062</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2">
         <v>44543</v>
@@ -1690,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1701,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1712,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1723,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1734,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1745,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1756,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1767,7 +1773,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1778,7 +1784,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1789,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1800,7 +1806,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1811,7 +1817,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1822,7 +1828,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1833,7 +1839,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1844,7 +1850,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1855,7 +1861,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1866,7 +1872,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1877,7 +1883,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19">
         <v>92057</v>
@@ -1926,7 +1932,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1954,13 +1960,13 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2">
         <v>44553</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -1971,13 +1977,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2">
         <v>44553</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>125151</v>
@@ -1988,13 +1994,13 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2">
         <v>44553</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>1074513</v>
@@ -2005,13 +2011,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2">
         <v>44553</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>8703</v>
@@ -2022,13 +2028,13 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2">
         <v>44553</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>673982</v>
@@ -2039,13 +2045,13 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2">
         <v>44553</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>1076958</v>
@@ -2056,13 +2062,13 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2">
         <v>44553</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>66756</v>
@@ -2073,13 +2079,13 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2">
         <v>44553</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>586753</v>
@@ -2090,13 +2096,13 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2">
         <v>44553</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>37322</v>
@@ -2107,7 +2113,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2118,7 +2124,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2129,7 +2135,7 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2140,7 +2146,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2151,7 +2157,7 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2162,7 +2168,7 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2173,7 +2179,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2184,7 +2190,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2195,13 +2201,13 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2">
         <v>44553</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>125151</v>
@@ -2212,7 +2218,7 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2223,13 +2229,13 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2">
         <v>44553</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>1076958</v>
@@ -2240,7 +2246,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2251,7 +2257,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2262,7 +2268,7 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2273,7 +2279,7 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2284,7 +2290,7 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2295,7 +2301,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2306,10 +2312,27 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E28">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>41382</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2342,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2362,25 +2385,25 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2">
         <v>44553</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2">
         <v>44536</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>88</v>
@@ -2394,25 +2417,25 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2">
         <v>44553</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>125151</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2">
         <v>44536</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3">
         <v>68120</v>
@@ -2426,25 +2449,25 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2">
         <v>44553</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>1074513</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2">
         <v>44536</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>744552</v>
@@ -2458,25 +2481,25 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2">
         <v>44553</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>8703</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2">
         <v>44536</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5">
         <v>6039</v>
@@ -2490,25 +2513,25 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2">
         <v>44553</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>673982</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2">
         <v>44536</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6">
         <v>427265</v>
@@ -2522,25 +2545,25 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2">
         <v>44553</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>1076958</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G7" s="2">
         <v>44536</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>778870</v>
@@ -2554,25 +2577,25 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2">
         <v>44553</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>66756</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2">
         <v>44536</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>44018</v>
@@ -2586,25 +2609,25 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2">
         <v>44553</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>586753</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G9" s="2">
         <v>44536</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9">
         <v>386588</v>
@@ -2618,25 +2641,25 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2">
         <v>44553</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>37322</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G10" s="2">
         <v>44543</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10">
         <v>31220</v>
@@ -2650,13 +2673,13 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2670,13 +2693,13 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2690,13 +2713,13 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2710,13 +2733,13 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2730,13 +2753,13 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2750,13 +2773,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2770,13 +2793,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2790,13 +2813,13 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2810,25 +2833,25 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2">
         <v>44553</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>125151</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2">
         <v>44536</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19">
         <v>68120</v>
@@ -2842,13 +2865,13 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2862,25 +2885,25 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2">
         <v>44553</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>1076958</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2">
         <v>44536</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21">
         <v>778870</v>
@@ -2894,13 +2917,13 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2914,13 +2937,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2934,13 +2957,13 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2954,13 +2977,13 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2974,13 +2997,13 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2994,13 +3017,13 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3014,19 +3037,51 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>41382</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44519</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29">
+        <v>36967</v>
+      </c>
+      <c r="J29">
+        <v>4415</v>
       </c>
     </row>
   </sheetData>
@@ -3044,13 +3099,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -3058,7 +3113,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>57683</v>
@@ -3072,7 +3127,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>2368</v>
@@ -3086,7 +3141,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>7955</v>
@@ -3100,7 +3155,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>25678</v>
@@ -3114,7 +3169,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>68487</v>
@@ -3128,7 +3183,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>61309</v>
@@ -3142,7 +3197,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>22200</v>
@@ -3156,7 +3211,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>31820</v>
@@ -3170,7 +3225,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>37555</v>
@@ -3184,7 +3239,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>7400</v>
@@ -3198,7 +3253,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>97532</v>
@@ -3212,7 +3267,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>71595</v>
@@ -3226,7 +3281,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>53502</v>
@@ -3240,7 +3295,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15">
         <v>3922</v>
@@ -3254,7 +3309,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>47767</v>
@@ -3268,7 +3323,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>66008</v>
@@ -3282,7 +3337,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>1406</v>
@@ -3296,7 +3351,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>9916</v>
@@ -3310,7 +3365,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20">
         <v>34817</v>
@@ -3324,7 +3379,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>35705</v>
@@ -3338,7 +3393,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>1813</v>
@@ -3352,7 +3407,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>144707</v>
@@ -3366,7 +3421,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B24">
         <v>143449</v>
@@ -3380,7 +3435,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25">
         <v>67192</v>
@@ -3394,7 +3449,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B26">
         <v>3848</v>
@@ -3408,7 +3463,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>66970</v>
@@ -3422,7 +3477,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>37407</v>
@@ -3436,7 +3491,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>4440</v>
@@ -3450,7 +3505,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <v>2627</v>
@@ -3464,7 +3519,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B31">
         <v>9213</v>
@@ -3478,7 +3533,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32">
         <v>107781</v>
@@ -3492,7 +3547,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33">
         <v>7474</v>
@@ -3506,7 +3561,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B34">
         <v>24198</v>
@@ -3525,7 +3580,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3550,7 +3605,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3561,7 +3616,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3572,7 +3627,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3583,7 +3638,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3594,7 +3649,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3605,7 +3660,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3616,7 +3671,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3627,7 +3682,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3638,7 +3693,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3649,7 +3704,7 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3660,7 +3715,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3671,7 +3726,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3682,7 +3737,7 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3693,7 +3748,7 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3704,7 +3759,7 @@
         <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3715,7 +3770,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3726,7 +3781,7 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3737,7 +3792,7 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3748,7 +3803,7 @@
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3759,7 +3814,7 @@
         <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3770,7 +3825,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3781,7 +3836,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3792,7 +3847,7 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3803,7 +3858,7 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3814,7 +3869,7 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3825,7 +3880,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3836,9 +3891,20 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
@@ -4719,7 +4785,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4753,7 +4819,7 @@
         <v>44553</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>99</v>
@@ -4770,7 +4836,7 @@
         <v>44553</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>100496</v>
@@ -4787,7 +4853,7 @@
         <v>44553</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>643769</v>
@@ -4804,7 +4870,7 @@
         <v>44553</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>8221</v>
@@ -4821,7 +4887,7 @@
         <v>44553</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>432535</v>
@@ -4838,7 +4904,7 @@
         <v>44553</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>1291022</v>
@@ -4855,7 +4921,7 @@
         <v>44553</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>79697</v>
@@ -4872,7 +4938,7 @@
         <v>44553</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>555272</v>
@@ -4889,7 +4955,7 @@
         <v>44553</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>79548</v>
@@ -4994,7 +5060,7 @@
         <v>44553</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>100496</v>
@@ -5022,7 +5088,7 @@
         <v>44553</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>1291022</v>
@@ -5105,10 +5171,27 @@
         <v>44403</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>85978</v>
       </c>
     </row>
   </sheetData>
@@ -5118,7 +5201,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5167,7 +5250,7 @@
         <v>44553</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>99</v>
@@ -5179,7 +5262,7 @@
         <v>44536</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>88</v>
@@ -5199,7 +5282,7 @@
         <v>44553</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>100496</v>
@@ -5211,7 +5294,7 @@
         <v>44536</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3">
         <v>97415</v>
@@ -5231,7 +5314,7 @@
         <v>44553</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>643769</v>
@@ -5243,7 +5326,7 @@
         <v>44536</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>624683</v>
@@ -5263,7 +5346,7 @@
         <v>44553</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>8221</v>
@@ -5275,7 +5358,7 @@
         <v>44536</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5">
         <v>8083</v>
@@ -5295,7 +5378,7 @@
         <v>44553</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>432535</v>
@@ -5307,7 +5390,7 @@
         <v>44536</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6">
         <v>418482</v>
@@ -5327,7 +5410,7 @@
         <v>44553</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>1291022</v>
@@ -5339,7 +5422,7 @@
         <v>44536</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>1223356</v>
@@ -5359,7 +5442,7 @@
         <v>44553</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>79697</v>
@@ -5371,7 +5454,7 @@
         <v>44536</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>77690</v>
@@ -5391,7 +5474,7 @@
         <v>44553</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>555272</v>
@@ -5403,7 +5486,7 @@
         <v>44536</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9">
         <v>540637</v>
@@ -5423,7 +5506,7 @@
         <v>44553</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>79548</v>
@@ -5435,7 +5518,7 @@
         <v>44543</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10">
         <v>72527</v>
@@ -5615,7 +5698,7 @@
         <v>44553</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>100496</v>
@@ -5627,7 +5710,7 @@
         <v>44536</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19">
         <v>97415</v>
@@ -5667,7 +5750,7 @@
         <v>44553</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>1291022</v>
@@ -5679,7 +5762,7 @@
         <v>44536</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21">
         <v>1223356</v>
@@ -5819,7 +5902,7 @@
         <v>44403</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5831,13 +5914,45 @@
         <v>44403</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>85978</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44519</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29">
+        <v>78913</v>
+      </c>
+      <c r="J29">
+        <v>7065</v>
       </c>
     </row>
   </sheetData>
@@ -5855,13 +5970,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -5869,7 +5984,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>81400</v>
@@ -5883,7 +5998,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>3626</v>
@@ -5897,7 +6012,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>6364</v>
@@ -5911,7 +6026,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>19388</v>
@@ -5925,7 +6040,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>59681</v>
@@ -5939,7 +6054,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>65453</v>
@@ -5953,7 +6068,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>37518</v>
@@ -5967,7 +6082,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>37888</v>
@@ -5981,7 +6096,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>53354</v>
@@ -5995,7 +6110,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>9435</v>
@@ -6009,7 +6124,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>177230</v>
@@ -6023,7 +6138,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>79328</v>
@@ -6037,7 +6152,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>41551</v>
@@ -6051,7 +6166,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15">
         <v>5106</v>
@@ -6065,7 +6180,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>67340</v>
@@ -6079,7 +6194,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>61383</v>
@@ -6093,7 +6208,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>2294</v>
@@ -6107,7 +6222,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>16428</v>
@@ -6121,7 +6236,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20">
         <v>55907</v>
@@ -6135,7 +6250,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>29896</v>
@@ -6149,7 +6264,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>3330</v>
@@ -6163,7 +6278,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>186776</v>
@@ -6177,7 +6292,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B24">
         <v>189884</v>
@@ -6191,7 +6306,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25">
         <v>65823</v>
@@ -6205,7 +6320,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B26">
         <v>2664</v>
@@ -6219,7 +6334,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>62789</v>
@@ -6233,7 +6348,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>58497</v>
@@ -6247,7 +6362,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>5957</v>
@@ -6261,7 +6376,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <v>6956</v>
@@ -6275,7 +6390,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B31">
         <v>16021</v>
@@ -6289,7 +6404,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32">
         <v>165575</v>
@@ -6303,7 +6418,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33">
         <v>3663</v>
@@ -6317,7 +6432,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B34">
         <v>27491</v>
@@ -6336,7 +6451,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6650,6 +6765,17 @@
         <v>23</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
@@ -6688,7 +6814,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2">
         <v>44568</v>
@@ -6705,7 +6831,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2">
         <v>44568</v>
@@ -6722,7 +6848,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2">
         <v>44568</v>
@@ -6739,7 +6865,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2">
         <v>44568</v>
@@ -6756,7 +6882,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2">
         <v>44568</v>
@@ -6773,7 +6899,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2">
         <v>44568</v>
@@ -6790,7 +6916,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2">
         <v>44568</v>
@@ -6807,7 +6933,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6818,7 +6944,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2">
         <v>44568</v>
@@ -6835,7 +6961,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2">
         <v>44568</v>
@@ -6852,7 +6978,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2">
         <v>44568</v>
@@ -6869,7 +6995,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2">
         <v>44568</v>
@@ -6886,7 +7012,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2">
         <v>44568</v>
@@ -6903,7 +7029,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2">
         <v>44568</v>
@@ -6920,7 +7046,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2">
         <v>44568</v>
@@ -6937,7 +7063,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2">
         <v>44568</v>
@@ -6954,7 +7080,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2">
         <v>44568</v>
@@ -6971,7 +7097,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2">
         <v>44568</v>

--- a/allTest_DCE_Orgs_11.xlsx
+++ b/allTest_DCE_Orgs_11.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="115">
   <si>
     <t>tableName</t>
   </si>
@@ -247,16 +247,19 @@
     <t>dce_align</t>
   </si>
   <si>
+    <t>dce_palmr</t>
+  </si>
+  <si>
     <t>2021-12</t>
   </si>
   <si>
     <t>2021-07</t>
   </si>
   <si>
+    <t>2021-10</t>
+  </si>
+  <si>
     <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-10</t>
   </si>
   <si>
     <t>MEASURE_ID</t>
@@ -1105,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>44568</v>
@@ -1117,7 +1120,7 @@
         <v>7901</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
         <v>44543</v>
@@ -1137,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2">
         <v>44568</v>
@@ -1149,7 +1152,7 @@
         <v>13330</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2">
         <v>44543</v>
@@ -1169,7 +1172,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2">
         <v>44568</v>
@@ -1181,7 +1184,7 @@
         <v>33827</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2">
         <v>44543</v>
@@ -1201,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>44568</v>
@@ -1213,7 +1216,7 @@
         <v>4719</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2">
         <v>44543</v>
@@ -1233,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <v>44568</v>
@@ -1245,7 +1248,7 @@
         <v>2155240</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2">
         <v>44543</v>
@@ -1265,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>44568</v>
@@ -1277,7 +1280,7 @@
         <v>800387</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2">
         <v>44543</v>
@@ -1297,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>44568</v>
@@ -1309,7 +1312,7 @@
         <v>12645</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2">
         <v>44543</v>
@@ -1329,13 +1332,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1349,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>44568</v>
@@ -1361,7 +1364,7 @@
         <v>319566</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" s="2">
         <v>44543</v>
@@ -1381,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2">
         <v>44568</v>
@@ -1393,7 +1396,7 @@
         <v>209942</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G11" s="2">
         <v>44543</v>
@@ -1413,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2">
         <v>44568</v>
@@ -1425,7 +1428,7 @@
         <v>1575686</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G12" s="2">
         <v>44543</v>
@@ -1445,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2">
         <v>44568</v>
@@ -1457,7 +1460,7 @@
         <v>157555</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G13" s="2">
         <v>44543</v>
@@ -1477,7 +1480,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2">
         <v>44568</v>
@@ -1489,7 +1492,7 @@
         <v>2273596</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" s="2">
         <v>44543</v>
@@ -1509,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2">
         <v>44568</v>
@@ -1521,7 +1524,7 @@
         <v>639132</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G15" s="2">
         <v>44543</v>
@@ -1541,7 +1544,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2">
         <v>44568</v>
@@ -1553,7 +1556,7 @@
         <v>6961355</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2">
         <v>44543</v>
@@ -1573,7 +1576,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2">
         <v>44568</v>
@@ -1585,7 +1588,7 @@
         <v>318579</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="2">
         <v>44543</v>
@@ -1605,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2">
         <v>44568</v>
@@ -1617,7 +1620,7 @@
         <v>194914</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="2">
         <v>44543</v>
@@ -1637,7 +1640,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>44568</v>
@@ -1649,7 +1652,7 @@
         <v>92062</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2">
         <v>44543</v>
@@ -1696,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1707,7 +1710,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1718,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1729,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1740,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1751,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1762,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1773,7 +1776,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1784,7 +1787,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1795,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1806,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1817,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1828,7 +1831,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1839,7 +1842,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1850,7 +1853,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1861,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1872,7 +1875,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1883,7 +1886,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19">
         <v>92057</v>
@@ -1932,7 +1935,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,13 +1963,13 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>44553</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -1977,13 +1980,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2">
         <v>44553</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>125151</v>
@@ -1994,13 +1997,13 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2">
         <v>44553</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>1074513</v>
@@ -2011,13 +2014,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>44553</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>8703</v>
@@ -2028,13 +2031,13 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <v>44553</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>673982</v>
@@ -2045,13 +2048,13 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>44553</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>1076958</v>
@@ -2062,13 +2065,13 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>44553</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>66756</v>
@@ -2079,13 +2082,13 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2">
         <v>44553</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>586753</v>
@@ -2096,13 +2099,13 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>44553</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>37322</v>
@@ -2113,7 +2116,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2124,7 +2127,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2135,7 +2138,7 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2146,7 +2149,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2157,7 +2160,7 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2168,7 +2171,7 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2179,7 +2182,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2190,7 +2193,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2201,13 +2204,13 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>44553</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>125151</v>
@@ -2218,7 +2221,7 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2229,13 +2232,13 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" s="2">
         <v>44553</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>1076958</v>
@@ -2246,7 +2249,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2257,7 +2260,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2268,7 +2271,7 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2279,7 +2282,7 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2290,7 +2293,7 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2301,7 +2304,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2312,7 +2315,7 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2323,16 +2326,33 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2">
         <v>44568</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29">
         <v>41382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>18874</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2362,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2385,25 +2405,25 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>44553</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
         <v>44536</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>88</v>
@@ -2417,25 +2437,25 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2">
         <v>44553</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>125151</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2">
         <v>44536</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>68120</v>
@@ -2449,25 +2469,25 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2">
         <v>44553</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>1074513</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2">
         <v>44536</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>744552</v>
@@ -2481,25 +2501,25 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>44553</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>8703</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2">
         <v>44536</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>6039</v>
@@ -2513,25 +2533,25 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <v>44553</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>673982</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2">
         <v>44536</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>427265</v>
@@ -2545,25 +2565,25 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>44553</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>1076958</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2">
         <v>44536</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>778870</v>
@@ -2577,25 +2597,25 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>44553</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>66756</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2">
         <v>44536</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8">
         <v>44018</v>
@@ -2609,25 +2629,25 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2">
         <v>44553</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>586753</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" s="2">
         <v>44536</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>386588</v>
@@ -2641,25 +2661,25 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>44553</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>37322</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" s="2">
         <v>44543</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>31220</v>
@@ -2673,13 +2693,13 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2693,13 +2713,13 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2713,13 +2733,13 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2733,13 +2753,13 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2753,13 +2773,13 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2773,13 +2793,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2793,13 +2813,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2813,13 +2833,13 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2833,25 +2853,25 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>44553</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>125151</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2">
         <v>44536</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19">
         <v>68120</v>
@@ -2865,13 +2885,13 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2885,25 +2905,25 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" s="2">
         <v>44553</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>1076958</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G21" s="2">
         <v>44536</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21">
         <v>778870</v>
@@ -2917,13 +2937,13 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2937,13 +2957,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2957,13 +2977,13 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2977,13 +2997,13 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2997,13 +3017,13 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3017,13 +3037,13 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3037,13 +3057,13 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3057,19 +3077,19 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2">
         <v>44568</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29">
         <v>41382</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G29" s="2">
         <v>44519</v>
@@ -3082,6 +3102,38 @@
       </c>
       <c r="J29">
         <v>4415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>18874</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44522</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>18874</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3099,13 +3151,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -3113,7 +3165,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>57683</v>
@@ -3127,7 +3179,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>2368</v>
@@ -3141,7 +3193,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>7955</v>
@@ -3155,7 +3207,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>25678</v>
@@ -3169,7 +3221,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>68487</v>
@@ -3183,7 +3235,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>61309</v>
@@ -3197,7 +3249,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>22200</v>
@@ -3211,7 +3263,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>31820</v>
@@ -3225,7 +3277,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>37555</v>
@@ -3239,7 +3291,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>7400</v>
@@ -3253,7 +3305,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>97532</v>
@@ -3267,7 +3319,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>71595</v>
@@ -3281,7 +3333,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>53502</v>
@@ -3295,7 +3347,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>3922</v>
@@ -3309,7 +3361,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>47767</v>
@@ -3323,7 +3375,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>66008</v>
@@ -3337,7 +3389,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>1406</v>
@@ -3351,7 +3403,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>9916</v>
@@ -3365,7 +3417,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>34817</v>
@@ -3379,7 +3431,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>35705</v>
@@ -3393,7 +3445,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22">
         <v>1813</v>
@@ -3407,7 +3459,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>144707</v>
@@ -3421,7 +3473,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24">
         <v>143449</v>
@@ -3435,7 +3487,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>67192</v>
@@ -3449,7 +3501,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>3848</v>
@@ -3463,7 +3515,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27">
         <v>66970</v>
@@ -3477,7 +3529,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>37407</v>
@@ -3491,7 +3543,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29">
         <v>4440</v>
@@ -3505,7 +3557,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>2627</v>
@@ -3519,7 +3571,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>9213</v>
@@ -3533,7 +3585,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>107781</v>
@@ -3547,7 +3599,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33">
         <v>7474</v>
@@ -3561,7 +3613,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34">
         <v>24198</v>
@@ -3580,7 +3632,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3605,7 +3657,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3616,7 +3668,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3627,7 +3679,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3638,7 +3690,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3649,7 +3701,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3660,7 +3712,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3671,7 +3723,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3682,7 +3734,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3693,7 +3745,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3704,7 +3756,7 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3715,7 +3767,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3726,7 +3778,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3737,7 +3789,7 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3748,7 +3800,7 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3759,7 +3811,7 @@
         <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3770,7 +3822,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3781,7 +3833,7 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3792,7 +3844,7 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3803,7 +3855,7 @@
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3814,7 +3866,7 @@
         <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3825,7 +3877,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3836,7 +3888,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3847,7 +3899,7 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3858,7 +3910,7 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3869,7 +3921,7 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3880,7 +3932,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3891,7 +3943,7 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3902,9 +3954,20 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
     </row>
@@ -4785,7 +4848,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4819,7 +4882,7 @@
         <v>44553</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>99</v>
@@ -4836,7 +4899,7 @@
         <v>44553</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>100496</v>
@@ -4853,7 +4916,7 @@
         <v>44553</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>643769</v>
@@ -4870,7 +4933,7 @@
         <v>44553</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>8221</v>
@@ -4887,7 +4950,7 @@
         <v>44553</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>432535</v>
@@ -4904,7 +4967,7 @@
         <v>44553</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>1291022</v>
@@ -4921,7 +4984,7 @@
         <v>44553</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>79697</v>
@@ -4938,7 +5001,7 @@
         <v>44553</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>555272</v>
@@ -4955,7 +5018,7 @@
         <v>44553</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>79548</v>
@@ -5060,7 +5123,7 @@
         <v>44553</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>100496</v>
@@ -5088,7 +5151,7 @@
         <v>44553</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>1291022</v>
@@ -5171,7 +5234,7 @@
         <v>44403</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5188,10 +5251,27 @@
         <v>44568</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29">
         <v>85978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>44128</v>
       </c>
     </row>
   </sheetData>
@@ -5201,7 +5281,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5250,7 +5330,7 @@
         <v>44553</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>99</v>
@@ -5262,7 +5342,7 @@
         <v>44536</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>88</v>
@@ -5282,7 +5362,7 @@
         <v>44553</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>100496</v>
@@ -5294,7 +5374,7 @@
         <v>44536</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>97415</v>
@@ -5314,7 +5394,7 @@
         <v>44553</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>643769</v>
@@ -5326,7 +5406,7 @@
         <v>44536</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>624683</v>
@@ -5346,7 +5426,7 @@
         <v>44553</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>8221</v>
@@ -5358,7 +5438,7 @@
         <v>44536</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>8083</v>
@@ -5378,7 +5458,7 @@
         <v>44553</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>432535</v>
@@ -5390,7 +5470,7 @@
         <v>44536</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>418482</v>
@@ -5410,7 +5490,7 @@
         <v>44553</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>1291022</v>
@@ -5422,7 +5502,7 @@
         <v>44536</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>1223356</v>
@@ -5442,7 +5522,7 @@
         <v>44553</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>79697</v>
@@ -5454,7 +5534,7 @@
         <v>44536</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8">
         <v>77690</v>
@@ -5474,7 +5554,7 @@
         <v>44553</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>555272</v>
@@ -5486,7 +5566,7 @@
         <v>44536</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>540637</v>
@@ -5506,7 +5586,7 @@
         <v>44553</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>79548</v>
@@ -5518,7 +5598,7 @@
         <v>44543</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>72527</v>
@@ -5698,7 +5778,7 @@
         <v>44553</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>100496</v>
@@ -5710,7 +5790,7 @@
         <v>44536</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19">
         <v>97415</v>
@@ -5750,7 +5830,7 @@
         <v>44553</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>1291022</v>
@@ -5762,7 +5842,7 @@
         <v>44536</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21">
         <v>1223356</v>
@@ -5902,7 +5982,7 @@
         <v>44403</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5914,7 +5994,7 @@
         <v>44403</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5934,7 +6014,7 @@
         <v>44568</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29">
         <v>85978</v>
@@ -5953,6 +6033,38 @@
       </c>
       <c r="J29">
         <v>7065</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>44128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44522</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>44128</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5970,13 +6082,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -5984,7 +6096,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>81400</v>
@@ -5998,7 +6110,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>3626</v>
@@ -6012,7 +6124,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>6364</v>
@@ -6026,7 +6138,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>19388</v>
@@ -6040,7 +6152,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>59681</v>
@@ -6054,7 +6166,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>65453</v>
@@ -6068,7 +6180,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>37518</v>
@@ -6082,7 +6194,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>37888</v>
@@ -6096,7 +6208,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>53354</v>
@@ -6110,7 +6222,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>9435</v>
@@ -6124,7 +6236,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>177230</v>
@@ -6138,7 +6250,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>79328</v>
@@ -6152,7 +6264,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>41551</v>
@@ -6166,7 +6278,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>5106</v>
@@ -6180,7 +6292,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>67340</v>
@@ -6194,7 +6306,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>61383</v>
@@ -6208,7 +6320,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>2294</v>
@@ -6222,7 +6334,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>16428</v>
@@ -6236,7 +6348,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>55907</v>
@@ -6250,7 +6362,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>29896</v>
@@ -6264,7 +6376,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22">
         <v>3330</v>
@@ -6278,7 +6390,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>186776</v>
@@ -6292,7 +6404,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24">
         <v>189884</v>
@@ -6306,7 +6418,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>65823</v>
@@ -6320,7 +6432,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>2664</v>
@@ -6334,7 +6446,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27">
         <v>62789</v>
@@ -6348,7 +6460,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>58497</v>
@@ -6362,7 +6474,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29">
         <v>5957</v>
@@ -6376,7 +6488,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>6956</v>
@@ -6390,7 +6502,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>16021</v>
@@ -6404,7 +6516,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>165575</v>
@@ -6418,7 +6530,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33">
         <v>3663</v>
@@ -6432,7 +6544,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34">
         <v>27491</v>
@@ -6451,7 +6563,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6776,6 +6888,17 @@
         <v>23</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
     </row>
@@ -6814,7 +6937,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>44568</v>
@@ -6831,7 +6954,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2">
         <v>44568</v>
@@ -6848,7 +6971,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2">
         <v>44568</v>
@@ -6865,7 +6988,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>44568</v>
@@ -6882,7 +7005,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <v>44568</v>
@@ -6899,7 +7022,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>44568</v>
@@ -6916,7 +7039,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>44568</v>
@@ -6933,7 +7056,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6944,7 +7067,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>44568</v>
@@ -6961,7 +7084,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2">
         <v>44568</v>
@@ -6978,7 +7101,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2">
         <v>44568</v>
@@ -6995,7 +7118,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2">
         <v>44568</v>
@@ -7012,7 +7135,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2">
         <v>44568</v>
@@ -7029,7 +7152,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2">
         <v>44568</v>
@@ -7046,7 +7169,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2">
         <v>44568</v>
@@ -7063,7 +7186,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2">
         <v>44568</v>
@@ -7080,7 +7203,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2">
         <v>44568</v>
@@ -7097,7 +7220,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>44568</v>
